--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.182</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.098</v>
+        <v>16.498</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.145</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.007</v>
+        <v>14.127</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.33</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.671</v>
+        <v>8.273999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.24826770199807</v>
+        <v>2.444497176688898</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.37954416410209</v>
+        <v>10.09329745597343</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.75560535809664</v>
+        <v>15.97212509323991</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.03584448497519</v>
+        <v>-7.601719379135417</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.37618251019872</v>
+        <v>11.99758313783009</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.85719741668855</v>
+        <v>14.99058700394126</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.10101098701662</v>
+        <v>-2.618334562777946</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.03918266143886</v>
+        <v>28.03638913364161</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.53380966083855</v>
+        <v>32.10834179559343</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.39111464962001</v>
+        <v>26.76275764743083</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.56692015512733</v>
+        <v>32.31435678823983</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.47284925858779</v>
+        <v>34.57681369972478</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.08085703245098</v>
+        <v>2.091533440579568</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.68872885109554</v>
+        <v>16.02214236229624</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.40405792653613</v>
+        <v>26.85764215194042</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14.75028737138126</v>
+        <v>12.76658327035047</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.00271875671977</v>
+        <v>29.08871967532521</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.45481665602266</v>
+        <v>36.62796235599389</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.1296716148413</v>
+        <v>2.989766576574752</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.55550822735964</v>
+        <v>17.8536774126698</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.1343771013059</v>
+        <v>28.91322919496746</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.25132262474253</v>
+        <v>4.549362377104401</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.30713483891056</v>
+        <v>33.72207271535417</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>33.88461251156029</v>
+        <v>48.50615316065763</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.90548634773532</v>
+        <v>36.28185154748853</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.17267389795204</v>
+        <v>47.96723692407919</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>37.12598896632665</v>
+        <v>57.43106100958543</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.61168698566185</v>
+        <v>9.627176771888216</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.38322679990185</v>
+        <v>41.72868655477679</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36.11391082054595</v>
+        <v>50.9074176952705</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>21.12131953042139</v>
+        <v>14.58208902287181</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.53259847060495</v>
+        <v>33.48236798193476</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.05078308763853</v>
+        <v>42.43634062396059</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>18.79748734201453</v>
+        <v>3.538839667685338</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>31.4192500929011</v>
+        <v>25.99369714008391</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.0324314281445</v>
+        <v>35.59316642707886</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>22.97046432958083</v>
+        <v>6.609531153921736</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.18487495787352</v>
+        <v>45.16337713252697</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>40.8326375755837</v>
+        <v>62.20271950058195</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.0088563792295</v>
+        <v>57.73969372536361</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>42.32101821146625</v>
+        <v>69.56921156525046</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>44.28551092472458</v>
+        <v>80.26858032114673</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.51738749561899</v>
+        <v>13.70706944240207</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>39.42409991042616</v>
+        <v>55.19669578181289</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>43.19834966945258</v>
+        <v>68.95120985737402</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>12.5492254070456</v>
+        <v>8.475193983365571</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.8348010227677</v>
+        <v>29.81591352589869</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.18599586536464</v>
+        <v>37.71767441833448</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>10.42067924344499</v>
+        <v>2.309644873881595</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22.91773117299045</v>
+        <v>35.8092997386873</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>27.37433924224006</v>
+        <v>40.7153763475046</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14.50721328252022</v>
+        <v>7.605275530254445</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.60702488888156</v>
+        <v>59.6998056064525</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32.07631109588861</v>
+        <v>64.00973796888188</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.92866994110406</v>
+        <v>55.93244491833788</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>33.1219421556729</v>
+        <v>66.30811107359376</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.00824732337641</v>
+        <v>65.65535813790821</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>19.45071221725892</v>
+        <v>9.052382972507317</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.21379220003978</v>
+        <v>44.91667192639518</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.90950219479822</v>
+        <v>52.24006281814594</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>14.88463452502864</v>
+        <v>8.16982086722733</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.28420138684809</v>
+        <v>34.45858636918116</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.70973802797601</v>
+        <v>42.0405566923293</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>12.34495647049087</v>
+        <v>0.4267886386248421</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.92026308497066</v>
+        <v>26.53263602218014</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.4731923440832</v>
+        <v>38.26057992414935</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>16.4908624869787</v>
+        <v>3.283563508036835</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.70126705915838</v>
+        <v>49.63181176629332</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>34.2517113915683</v>
+        <v>62.82106403367852</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31.26776945132133</v>
+        <v>48.5094179581818</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>35.54943575163597</v>
+        <v>65.30664633163401</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>37.4813079523153</v>
+        <v>70.27669549458385</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>21.81161438027415</v>
+        <v>7.810370410825911</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>32.7314430453426</v>
+        <v>55.99535593341831</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>36.44344376376512</v>
+        <v>61.34465206997608</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>21.42582449773374</v>
+        <v>8.534326840273835</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.99245460147791</v>
+        <v>37.96949295427639</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.48227495282018</v>
+        <v>47.46603577916984</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>19.17712415153622</v>
+        <v>-1.16729922664139</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>31.9574997679147</v>
+        <v>32.92557074642836</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.54208555121896</v>
+        <v>42.45243788713121</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>23.38186980877498</v>
+        <v>3.059890319381154</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.75840738467777</v>
+        <v>59.07645293566553</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>41.37797437698789</v>
+        <v>75.0666891808891</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>38.54831799575402</v>
+        <v>66.76236544457656</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>42.8777382103752</v>
+        <v>83.31026965278242</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>44.81984939122269</v>
+        <v>90.677459374951</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.89066862917559</v>
+        <v>7.045550206569587</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>39.95234911193342</v>
+        <v>67.84302201704857</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>43.70552455008644</v>
+        <v>76.89425015776241</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>12.44235859926223</v>
+        <v>13.78947685842438</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.7226119820663</v>
+        <v>30.34982044603031</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.06513066327235</v>
+        <v>34.15014498416706</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10.29729709364517</v>
+        <v>1.793350012460891</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22.79047508564346</v>
+        <v>34.15807328750783</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.23682231970765</v>
+        <v>35.19032990638799</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.38381577815059</v>
+        <v>9.343131876138884</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>27.47908227375324</v>
+        <v>59.17659802044399</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.94027444115734</v>
+        <v>58.51416087417299</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.81844140672746</v>
+        <v>55.46387895273834</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>33.00926481003437</v>
+        <v>62.4322937298294</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.89296071196963</v>
+        <v>60.63803676534387</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>19.33827392240711</v>
+        <v>12.90888738883065</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.09787034396036</v>
+        <v>39.80666281588726</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.78624716906992</v>
+        <v>45.74999479533973</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.88510061269317</v>
+        <v>19.77344431019473</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.28061282056429</v>
+        <v>43.0988183890987</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>31.69768446958461</v>
+        <v>46.16175810168487</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>12.33165493876056</v>
+        <v>6.198360879530057</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24.90459117440867</v>
+        <v>33.4733396251906</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.44748171276882</v>
+        <v>40.73175554438966</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.47746221264685</v>
+        <v>11.76824675272228</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.68461870396686</v>
+        <v>58.23274538263543</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>34.22716534240079</v>
+        <v>65.7559885909631</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>31.26892720615698</v>
+        <v>57.14946073186989</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>35.54812413978787</v>
+        <v>69.76038624706054</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>37.47758952350595</v>
+        <v>73.09714479594344</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.81002843772831</v>
+        <v>18.9005721004459</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>32.72672262411125</v>
+        <v>59.06209337743054</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>36.43181228856406</v>
+        <v>63.26378869789873</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.4009664444631</v>
+        <v>17.43350252060769</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.96366584545083</v>
+        <v>43.96365999749769</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>38.44505802498611</v>
+        <v>48.64633234752385</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>19.13491120814164</v>
+        <v>2.089299486108743</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>31.91312002095406</v>
+        <v>37.42221732262458</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.48756702338093</v>
+        <v>42.05438332120137</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>23.3406534610221</v>
+        <v>9.089992037368503</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>36.71407506032475</v>
+        <v>65.40481635494918</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>41.32579561414173</v>
+        <v>75.39195843473713</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>38.52096652250412</v>
+        <v>73.39986229751925</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>42.84862784809988</v>
+        <v>85.69971070980408</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>44.78815426426036</v>
+        <v>91.25550944752605</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.8603302179768</v>
+        <v>15.93012725419273</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>39.919430143189</v>
+        <v>69.04906344584209</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>43.66578657336589</v>
+        <v>76.51172005854208</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>11.28336754603809</v>
+        <v>8.921088055403246</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>23.35720906032905</v>
+        <v>13.40263643266069</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.71112910924889</v>
+        <v>19.43806417970315</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9.033791044936613</v>
+        <v>-3.506921274020428</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>21.3144570155666</v>
+        <v>12.55820394631651</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.77000342090813</v>
+        <v>16.39495262653516</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>13.07563656470024</v>
+        <v>2.98401508246603</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.95431636785701</v>
+        <v>29.94632160696584</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.42620160300547</v>
+        <v>33.24716616772626</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>27.30802571180361</v>
+        <v>28.05039729285055</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.46593406226871</v>
+        <v>30.76058919326248</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>33.36527879763097</v>
+        <v>34.70082329688522</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>18.05850753978543</v>
+        <v>15.56073346642525</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.61708600773552</v>
+        <v>27.82477169203695</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>32.31140347849928</v>
+        <v>35.37987532808718</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.73319135455406</v>
+        <v>13.54397769008823</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.92818443857599</v>
+        <v>26.10636916369289</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.35808726673768</v>
+        <v>33.3963078806007</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>11.07599803408345</v>
+        <v>2.16781656033821</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>23.44237352086441</v>
+        <v>13.10228102798753</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>27.99560996549199</v>
+        <v>24.55191574761663</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.17041927953457</v>
+        <v>29.52044420528286</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>32.7250626692223</v>
+        <v>42.7288450606391</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.76800629296542</v>
+        <v>30.5960882779428</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>34.01725684789083</v>
+        <v>39.48994389709627</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.96376104832837</v>
+        <v>50.00388613660631</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>20.53400632859213</v>
+        <v>15.50797010568762</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>31.25582175657398</v>
+        <v>44.61805697607126</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.96558268770311</v>
+        <v>49.8095676512677</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.21972178277818</v>
+        <v>18.35022480393586</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.57386562093284</v>
+        <v>32.44772193745457</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>37.06991154556169</v>
+        <v>41.38436891944666</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>17.85855660910754</v>
+        <v>3.77885500804264</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>30.42109660056504</v>
+        <v>21.26635165158278</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.00849576185533</v>
+        <v>31.60820737646294</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>22.0103452221975</v>
+        <v>8.104625479305909</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>35.16568540762373</v>
+        <v>41.78321024007751</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>39.79070761612904</v>
+        <v>57.66959419212019</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>36.98750654931621</v>
+        <v>51.65184901453161</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>41.28180016316414</v>
+        <v>60.65354210400467</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>43.23946972041259</v>
+        <v>72.93679008865185</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>27.55436904916019</v>
+        <v>20.86719758456753</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>38.41167787866063</v>
+        <v>58.44508986190441</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.16511924268213</v>
+        <v>68.27045214944552</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>14.77865164961804</v>
+        <v>11.69614236889133</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.93124308803236</v>
+        <v>28.59582193004731</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.28269566534263</v>
+        <v>31.16998257508685</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>12.61646018169813</v>
+        <v>0.2114648502408301</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24.98131783825752</v>
+        <v>32.17309545780377</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.43245333541918</v>
+        <v>32.62705142268528</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>16.67995166818525</v>
+        <v>9.248982310547817</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.64018694214136</v>
+        <v>57.08508845774499</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.10947418242235</v>
+        <v>55.29492104566508</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>30.97961762917544</v>
+        <v>51.1455836782841</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.15535181091098</v>
+        <v>56.51688224501551</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>37.04670335793359</v>
+        <v>54.97639818415054</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>21.66136754879381</v>
+        <v>19.11448580341592</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>32.26874898542791</v>
+        <v>39.04491078305286</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>35.95787913564116</v>
+        <v>44.21948764983502</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>17.38585990665359</v>
+        <v>22.12342531770618</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.65973446149705</v>
+        <v>46.8104833778212</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>34.0845604899697</v>
+        <v>48.74749545732074</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>14.81947811664174</v>
+        <v>9.202441513906919</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>27.2703252213841</v>
+        <v>36.43452109438492</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>31.81647264876791</v>
+        <v>42.54916258520392</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.01799477475842</v>
+        <v>60.67583519483487</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>36.56741437692028</v>
+        <v>66.90251270520015</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>33.60493382545843</v>
+        <v>59.44143557132547</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>37.87178401462654</v>
+        <v>71.05105241771103</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>39.80927043129459</v>
+        <v>75.34882585346149</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>24.30432331426455</v>
+        <v>28.7942971775834</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>35.07412323443376</v>
+        <v>65.946826476336</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>38.77704390786695</v>
+        <v>67.6759298737753</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>23.64543379488713</v>
+        <v>18.32335312512846</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.07499281996073</v>
+        <v>44.09536924948826</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>40.56747584300177</v>
+        <v>48.22348371351013</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>21.37065777749873</v>
+        <v>2.644178375858232</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.01374395368153</v>
+        <v>35.61117395578187</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>38.59573892666504</v>
+        <v>40.80774466522466</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.5433749258144</v>
+        <v>10.00397747275808</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>38.77665507496177</v>
+        <v>63.23828173021694</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>43.39813818409587</v>
+        <v>72.82134491946208</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>40.5875078113268</v>
+        <v>71.62170036481713</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>44.89922901181271</v>
+        <v>83.00642553972735</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>46.84876243315025</v>
+        <v>89.16784629577013</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.09016390879102</v>
+        <v>24.52476730096571</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>41.99392372256631</v>
+        <v>70.26183193559361</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>45.74166603275486</v>
+        <v>76.94222715922605</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>10.18538948555843</v>
+        <v>6.136035193121231</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>22.250460108053</v>
+        <v>24.88144020103526</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>26.52712241957834</v>
+        <v>30.77636402806694</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8.010581423855234</v>
+        <v>-1.477442420963982</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>20.29016651126528</v>
+        <v>35.64873276330015</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>24.6654697836406</v>
+        <v>37.47989950717228</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>12.02280329391083</v>
+        <v>5.830170380830921</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>24.89123706773247</v>
+        <v>62.03405028541211</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.28407011979647</v>
+        <v>61.33133462893262</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>26.15767744133529</v>
+        <v>52.43569750521463</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>30.27475783691765</v>
+        <v>58.79059800293406</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>32.13554344030717</v>
+        <v>59.85170215764394</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>16.86078717861108</v>
+        <v>6.271937082271123</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>27.40853661316211</v>
+        <v>35.58030631221298</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>31.03644710574142</v>
+        <v>40.35870959112266</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>12.91933394076445</v>
+        <v>17.15690323418288</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.10284863373409</v>
+        <v>44.97660632464893</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.45217790050112</v>
+        <v>48.80812273804217</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>10.3479805264219</v>
+        <v>4.885900175076372</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>22.71090115904963</v>
+        <v>39.1052481739079</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>27.18042558568267</v>
+        <v>45.81812520230802</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>14.42068935702431</v>
+        <v>10.39641593404077</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.40423352284227</v>
+        <v>66.13549898250467</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.87641683282644</v>
+        <v>72.04390446515914</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.91671815594123</v>
+        <v>59.01013855984267</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>33.12240992027049</v>
+        <v>72.09972458819861</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>35.02802321691985</v>
+        <v>78.53413871485769</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.63967214238468</v>
+        <v>18.25112648678702</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.34754420683295</v>
+        <v>66.13386596828592</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>33.99076149949669</v>
+        <v>67.22580690593792</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>19.4042082858907</v>
+        <v>14.97773886254309</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>17.10706426455822</v>
+        <v>-0.4655856644296392</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.67276568114404</v>
+        <v>38.87055662140359</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>34.17433790579949</v>
+        <v>43.83916895001435</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>21.24075497768773</v>
+        <v>6.433743869296521</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>34.38838061059204</v>
+        <v>69.07751604059531</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>38.92949192162189</v>
+        <v>77.56613539248356</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.11954805864785</v>
+        <v>72.86972653890335</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>40.37259097392874</v>
+        <v>85.17751888011357</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>42.28828991798073</v>
+        <v>92.95525603983445</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>26.64100951661396</v>
+        <v>13.98630374102289</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>37.48952645113246</v>
+        <v>71.72174403060733</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>41.17456648606579</v>
+        <v>76.2178781579819</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>6.886691165913778</v>
+        <v>0.6614125351205047</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>18.89453141586147</v>
+        <v>5.141701936328886</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.1931496039848</v>
+        <v>8.952852485710181</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>4.628541895981524</v>
+        <v>-7.504485631052759</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>16.84623412803055</v>
+        <v>10.34290929985538</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.24971110092228</v>
+        <v>10.94886328033483</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>8.645638394159493</v>
+        <v>-1.516114012281307</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>21.45495519028452</v>
+        <v>25.70205066523381</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.8708831848864</v>
+        <v>28.01199407907758</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.75298922943461</v>
+        <v>27.75006593854503</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>26.86146518518726</v>
+        <v>31.87035750148924</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.74054273078168</v>
+        <v>31.78555493959077</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>13.48124315620381</v>
+        <v>-0.8858920794886416</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>24.00321569851302</v>
+        <v>12.44314873866755</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.65698000034989</v>
+        <v>20.04670264803384</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>9.509951523210598</v>
+        <v>12.26210907892253</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>21.63575782461678</v>
+        <v>26.70061795901172</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>26.01129483529346</v>
+        <v>32.78901847147613</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>6.852718363510888</v>
+        <v>4.829726251269918</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>19.15282333650352</v>
+        <v>20.19890457572153</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>23.65509120930423</v>
+        <v>29.48687562644206</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>10.92890064243074</v>
+        <v>8.801175912394697</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23.85286315085443</v>
+        <v>36.42569114247563</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.35240627092622</v>
+        <v>50.04170161866593</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.39545819887816</v>
+        <v>40.23489049728884</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.59257839322806</v>
+        <v>50.04087267715617</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>31.5184590001154</v>
+        <v>56.1259984944512</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>16.1420371707846</v>
+        <v>10.98341214771277</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.82533091430185</v>
+        <v>41.78285385265904</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>30.49704259573219</v>
+        <v>49.38716943548967</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>16.1176448513188</v>
+        <v>12.25890589797392</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.41284089109235</v>
+        <v>31.12017336508889</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>32.85056292247542</v>
+        <v>37.80467045277992</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>13.73907245558234</v>
+        <v>3.042619844858606</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.24725262357806</v>
+        <v>27.84902566734094</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>30.77944112996252</v>
+        <v>34.26551706598717</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>17.87541026729074</v>
+        <v>8.494376098536648</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>30.96818441536945</v>
+        <v>47.6083894298974</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>35.53443112589773</v>
+        <v>62.06028370477971</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.73127344469285</v>
+        <v>61.48337793839308</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>36.97639314171092</v>
+        <v>71.421838582619</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>38.91085933224328</v>
+        <v>78.59601244264807</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>23.27521056375491</v>
+        <v>13.43930767894484</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>34.10116630421489</v>
+        <v>56.58284834677731</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>37.81330003761207</v>
+        <v>67.02572064573771</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>11.5504588342437</v>
+        <v>1.182123702179226</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>23.77896325825516</v>
+        <v>2.113506023035782</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.18100650506492</v>
+        <v>9.237826156215974</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>9.323903342379257</v>
+        <v>-4.681152378491603</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>21.7628194376475</v>
+        <v>7.149285939201647</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>26.26417464571198</v>
+        <v>11.63508746890933</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>13.39329539242618</v>
+        <v>-2.954989064136228</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>26.43620322745149</v>
+        <v>19.64414491008272</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>30.9574418088888</v>
+        <v>23.84553722657198</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>27.78078614870625</v>
+        <v>17.05732783710282</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>31.98724399175272</v>
+        <v>20.77926813395253</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.90255683787532</v>
+        <v>25.0707681741939</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.38329117605427</v>
+        <v>-0.4580389875848283</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.07330895436885</v>
+        <v>5.794621285274772</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>32.80422622046254</v>
+        <v>10.87026506680347</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>14.13862701585562</v>
+        <v>1.383315435407056</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>26.48862555639469</v>
+        <v>9.169995029532018</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>30.96552489306998</v>
+        <v>16.81421598151401</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>11.50331462908676</v>
+        <v>-3.689708613992551</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>24.02800624154206</v>
+        <v>2.51793819346473</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.62616553137938</v>
+        <v>13.49382408370006</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>15.63113323609096</v>
+        <v>-5.650229929975708</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.79200759065668</v>
+        <v>13.80724362107277</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>33.39492693238599</v>
+        <v>27.32219859336747</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.3853128934928</v>
+        <v>14.81777789904108</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>34.6832756544758</v>
+        <v>24.45473001987263</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>36.64548495756981</v>
+        <v>35.38016612010826</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>21.00581585675195</v>
+        <v>-2.26994621803216</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>31.85913635562648</v>
+        <v>19.26502629373461</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.60487141044573</v>
+        <v>21.81099355910958</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>20.59427438938391</v>
+        <v>3.444767817316247</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>33.10510201837379</v>
+        <v>12.64592727405902</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>37.65062896492633</v>
+        <v>23.55777085320479</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>18.25382063253772</v>
+        <v>-3.945316425599557</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>30.97682712876664</v>
+        <v>8.377661490745552</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.61127619707422</v>
+        <v>19.85379016400863</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>22.43614807227542</v>
+        <v>-3.643776980137218</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>35.75741114425732</v>
+        <v>23.76161940309144</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>40.43350733269529</v>
+        <v>41.54636741489581</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>37.57622483737636</v>
+        <v>34.09898896648865</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>41.92077999629331</v>
+        <v>44.21190631683048</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>43.89496733055594</v>
+        <v>57.82317901729606</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>27.995625903996</v>
+        <v>-0.154035679235804</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>38.98687155279437</v>
+        <v>30.46058977623191</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>42.77789920915822</v>
+        <v>38.71453124909304</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>13.21522982575148</v>
+        <v>9.554433098851021</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.4484318674936</v>
+        <v>26.57399145419758</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.77168326123933</v>
+        <v>36.13557801224643</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>11.14561585954717</v>
+        <v>4.971824080846901</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>23.60217974165614</v>
+        <v>42.96764096056692</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.02489249234758</v>
+        <v>45.89269002190998</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>15.22068084410626</v>
+        <v>11.27923402362968</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.26612979286149</v>
+        <v>66.24902729645812</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>32.70591553015667</v>
+        <v>68.49603207348294</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.57689809760489</v>
+        <v>61.62095746693267</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>33.7402163075049</v>
+        <v>68.65464360386598</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>35.62256468540106</v>
+        <v>66.27287481230205</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>20.15300169890041</v>
+        <v>17.24212065939373</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>30.85184170449671</v>
+        <v>45.97670710056771</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>34.5276840702989</v>
+        <v>57.73509004696082</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>15.68973002028828</v>
+        <v>7.623965969947065</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.0389526069875</v>
+        <v>31.0345258153984</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>32.43485311946134</v>
+        <v>38.03378246885542</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>13.21035985854348</v>
+        <v>-2.078540627284568</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.74691424812708</v>
+        <v>28.79939915066281</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.26421113468137</v>
+        <v>36.79897896867634</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>17.34568826223696</v>
+        <v>2.07300583863163</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>30.50375829543037</v>
+        <v>52.53895695769258</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>35.02293890233074</v>
+        <v>61.30432998965706</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>32.06037705997033</v>
+        <v>48.65609685054035</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>36.31231908283505</v>
+        <v>61.3149449257855</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>38.24020962601878</v>
+        <v>63.92045718881543</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>22.6587828176828</v>
+        <v>11.9055291860649</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.51628756109062</v>
+        <v>54.34209890677563</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>37.20671364091261</v>
+        <v>60.20796018807921</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>22.13188381738173</v>
+        <v>9.130828423404679</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>34.64559302529834</v>
+        <v>35.22807345601349</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>39.1057383848041</v>
+        <v>44.27244126401602</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>19.93506342276928</v>
+        <v>-0.7114934004228388</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>32.67408341352316</v>
+        <v>37.32691514575517</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>37.22336227841872</v>
+        <v>43.55137518357766</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>24.1282939436952</v>
+        <v>4.613666333685288</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>37.4499289898484</v>
+        <v>64.1554934887284</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>42.03817107744307</v>
+        <v>75.69131824068565</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>39.22816677033391</v>
+        <v>70.48978623915822</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>43.52756586376991</v>
+        <v>82.55044362346611</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>45.46525075523548</v>
+        <v>86.58735379376698</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.6248273520414</v>
+        <v>13.95524181259709</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>40.62251750077083</v>
+        <v>68.57161010078248</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>44.35469108470093</v>
+        <v>78.40800645153915</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>5.200452570588666</v>
+        <v>5.06782825241622</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>17.17727810558558</v>
+        <v>5.182840804062423</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>21.49095998429442</v>
+        <v>12.62155523331772</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>2.881976664435076</v>
+        <v>-2.783964208635595</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>15.05647997605387</v>
+        <v>5.571573112255194</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>19.4829080254411</v>
+        <v>10.65218781442293</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>6.885714178981365</v>
+        <v>0.2054417510345417</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>19.65965892628834</v>
+        <v>17.38332811901471</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>24.09291781087235</v>
+        <v>24.92172490525776</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>20.95626533007756</v>
+        <v>18.16599647579521</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.06617678797212</v>
+        <v>20.83113911326042</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>26.94367823282535</v>
+        <v>25.87062413457487</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>11.69997718670672</v>
+        <v>1.924407910419731</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>22.21053191587308</v>
+        <v>7.906284360240434</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.87547749601439</v>
+        <v>13.88119238484624</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>7.672606545681663</v>
+        <v>8.150232305156649</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>19.76457605266479</v>
+        <v>15.32023024059249</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>24.15651833182378</v>
+        <v>26.09522296715137</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>4.954445860577581</v>
+        <v>1.937448836045959</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>17.20934028201413</v>
+        <v>5.816847030860217</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>21.73562048611848</v>
+        <v>20.86977255495843</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>9.016027578708721</v>
+        <v>2.117647916737624</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>21.90173757157413</v>
+        <v>16.08583232014034</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>26.4200125613028</v>
+        <v>36.50351941929115</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.44023815345618</v>
+        <v>18.72302169110937</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>27.63789479876636</v>
+        <v>26.74194101844576</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.56222722598913</v>
+        <v>39.89328388490436</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>14.20168554132633</v>
+        <v>3.484399520468841</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.87076047362956</v>
+        <v>22.89632781808514</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.55558232031</v>
+        <v>31.70136053106283</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>14.29158103006228</v>
+        <v>12.70946043792468</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>26.55422949580343</v>
+        <v>23.48466353619868</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>31.00796919060013</v>
+        <v>36.01990192388011</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>11.85726025421558</v>
+        <v>3.634729321505162</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.32123736489633</v>
+        <v>15.76492631464625</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.87706877471115</v>
+        <v>28.8111626454867</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>15.97859676011083</v>
+        <v>5.559095672817207</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.03442610133619</v>
+        <v>29.81029489240298</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>33.61894427403521</v>
+        <v>52.55097738759049</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.79410066408853</v>
+        <v>39.91802333705773</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>35.04029781864922</v>
+        <v>48.4405464167147</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>36.97374944105621</v>
+        <v>64.65307094127211</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.35566218035614</v>
+        <v>8.611167409651259</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>32.16808723563158</v>
+        <v>39.30305242108936</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>35.89209411484018</v>
+        <v>51.91475597205253</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>9.885521905503291</v>
+        <v>-7.818019816241545</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.01856075370785</v>
+        <v>1.710437885520534</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>26.32511325575684</v>
+        <v>5.041276340293322</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>7.666106720089145</v>
+        <v>-20.1477034816467</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>20.0047982837874</v>
+        <v>2.544213497357262</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.41378810248197</v>
+        <v>3.368675212867302</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>11.69458664851733</v>
+        <v>-14.41239658956114</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.63529855650615</v>
+        <v>24.17168996452845</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.06013914293668</v>
+        <v>23.11355757596429</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.94605540265113</v>
+        <v>20.58077582080075</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>30.09697866848331</v>
+        <v>24.40701646927219</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.96333781256115</v>
+        <v>22.74932729865999</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>16.57615508298654</v>
+        <v>-11.81284699854133</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>27.20611632512459</v>
+        <v>6.215598895932303</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.85721976257276</v>
+        <v>9.532861588805119</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>12.55605009112068</v>
+        <v>17.88008649334721</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>24.80617069219787</v>
+        <v>36.02116109391697</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.18728776501213</v>
+        <v>38.93254166059158</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>9.940022128380688</v>
+        <v>5.524602412424954</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.3609376610184</v>
+        <v>26.11852976672243</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.86620663366632</v>
+        <v>32.95127846625458</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>14.02827395842155</v>
+        <v>9.920510963863123</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>27.08277179326608</v>
+        <v>47.96000456108506</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>31.58892980130685</v>
+        <v>55.08826384245019</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.63842783399186</v>
+        <v>47.22947694897964</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>32.87774111105645</v>
+        <v>57.69541194110626</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>34.78914383030907</v>
+        <v>60.44979225043328</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>19.28747990435061</v>
+        <v>16.39420944466654</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>30.07555876871756</v>
+        <v>50.38021469485351</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>33.74381887542141</v>
+        <v>52.77985200616591</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>19.12158144297878</v>
+        <v>19.19071999031628</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>31.53960523382813</v>
+        <v>40.02766274132522</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>35.9852269110293</v>
+        <v>44.8576057776573</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>16.78677106455824</v>
+        <v>3.483301211789509</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.41369340422089</v>
+        <v>31.6257705185118</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>33.95075669211084</v>
+        <v>36.20224629975807</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>20.93733283731592</v>
+        <v>9.670798886987953</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>34.15887177126318</v>
+        <v>56.92491303322534</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>38.73433544174313</v>
+        <v>66.77201930249858</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.93455008719527</v>
+        <v>65.08359307355649</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>40.22218324870417</v>
+        <v>75.48552340617404</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>42.14405417403328</v>
+        <v>80.96459270798324</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>26.38165234667054</v>
+        <v>15.78568659612451</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>37.31275025242954</v>
+        <v>62.23508801790051</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>41.02257570362258</v>
+        <v>67.92866086211903</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>6.375951440143842</v>
+        <v>9.606376291579878</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>18.3810472028492</v>
+        <v>11.57238346219496</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>22.66955530224168</v>
+        <v>14.61987730671281</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>4.078037882600128</v>
+        <v>0.07982414108876412</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.28547027476357</v>
+        <v>12.33326800870041</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.67848300361648</v>
+        <v>13.26486479556759</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>8.083213568857815</v>
+        <v>4.080849816933906</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>20.88967862060496</v>
+        <v>26.63175450231286</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.29614510257102</v>
+        <v>27.28427298952728</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.18715131776487</v>
+        <v>25.84306842090227</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>26.29875795720525</v>
+        <v>26.71944400350087</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.16194910141389</v>
+        <v>27.94699747358418</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>12.91527426933573</v>
+        <v>6.2079874326446</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>23.44523735744415</v>
+        <v>12.68686243724737</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.09205960680166</v>
+        <v>14.45269909808884</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>8.640581813116455</v>
+        <v>4.031561402106703</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>20.75856794263624</v>
+        <v>12.30451777781947</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.12511159190128</v>
+        <v>16.37622354148992</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>5.938555592677712</v>
+        <v>-3.201295566834588</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>18.22360226319112</v>
+        <v>3.075197763960617</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.71636188356906</v>
+        <v>11.72002866494994</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>10.00027452838229</v>
+        <v>-3.263801142218554</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>22.91635144950305</v>
+        <v>15.74296555230366</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>27.40760749445364</v>
+        <v>26.22903376810983</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>24.45470745279877</v>
+        <v>17.9174287112095</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.6535301193548</v>
+        <v>23.39884474010476</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>30.56367300262733</v>
+        <v>29.8786298223538</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>15.20252815843397</v>
+        <v>0.258877465206595</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.88886977397293</v>
+        <v>18.12356417289395</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.55489758161383</v>
+        <v>20.08732964669754</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>15.49114252565657</v>
+        <v>14.71275029014369</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>27.7812843140807</v>
+        <v>27.15289803492054</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>32.2087208251363</v>
+        <v>31.84098057059352</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>13.07736560742756</v>
+        <v>2.274301809427627</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>25.57283568151268</v>
+        <v>17.79472180586596</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.0939806559531</v>
+        <v>23.05723501560367</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>17.20342058400957</v>
+        <v>5.460873862785959</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.29104550525205</v>
+        <v>35.8636656565525</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.84779563739302</v>
+        <v>47.45071905554296</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.05031723923154</v>
+        <v>45.48942150313216</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>36.29782409994205</v>
+        <v>50.70243405149144</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.21640206851642</v>
+        <v>59.54599456766611</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>22.59437448497308</v>
+        <v>8.8677480075783</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>33.42557085342275</v>
+        <v>40.34438283325441</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>37.13072673754638</v>
+        <v>44.64899318509445</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>3.025825587047446</v>
+        <v>4.018124055118008</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>14.9029053072616</v>
+        <v>1.024280421211031</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>19.15320907035587</v>
+        <v>0.6879104911425458</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>0.6596814423688286</v>
+        <v>-2.908143187713236</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.73331460726798</v>
+        <v>2.02812513790316</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.08679909583256</v>
+        <v>1.410989729580919</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>4.607865125149292</v>
+        <v>-2.107864196162765</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>17.27934794434552</v>
+        <v>12.0905942089443</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>21.64675292586901</v>
+        <v>8.977818506400027</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.56141717033863</v>
+        <v>8.205540291410003</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.63512886604449</v>
+        <v>6.162221793210975</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.4870852581923</v>
+        <v>6.388095051749318</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>9.399729357937916</v>
+        <v>-1.532186480727219</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.82172754557686</v>
+        <v>-1.176432725374681</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>23.43172452263118</v>
+        <v>-1.28569218294605</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>5.412123128194255</v>
+        <v>0.9219754622284739</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>17.40336597314056</v>
+        <v>3.749135578363294</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.73100729435335</v>
+        <v>4.610295961919846</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>2.648833179933643</v>
+        <v>-3.018366974327037</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>14.80199888641646</v>
+        <v>-3.559268673230193</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>19.25433089550793</v>
+        <v>3.224266212077836</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>6.654330660770716</v>
+        <v>-6.241330567921366</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>19.4367055931536</v>
+        <v>4.671968921934322</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>23.8881390540412</v>
+        <v>10.86497372184077</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>20.95808025437908</v>
+        <v>4.037605312323208</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.1190261978076</v>
+        <v>6.742364151089774</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.0170427174818</v>
+        <v>11.43612225882715</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>11.81380084579786</v>
+        <v>-3.998459695110355</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>22.39272364698656</v>
+        <v>7.146020901214413</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.02188993349917</v>
+        <v>6.897058294428732</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>12.33218695700445</v>
+        <v>13.71646273617726</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.49542124178518</v>
+        <v>19.88153318804957</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.88458592654959</v>
+        <v>21.77831885923955</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>9.854202786200922</v>
+        <v>3.111396824342691</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>22.21728294462499</v>
+        <v>11.10086878645647</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.69870615037864</v>
+        <v>15.1835831125221</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>13.92489433659196</v>
+        <v>3.637615288272698</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.87874871655958</v>
+        <v>25.00719230551162</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.39629436054486</v>
+        <v>32.81338859559413</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.61875586603506</v>
+        <v>31.34452377795894</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>32.82790281047023</v>
+        <v>34.31439684464856</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.73517357128941</v>
+        <v>41.40798471160416</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>19.27090391968852</v>
+        <v>5.745486752704366</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.99413870954009</v>
+        <v>29.25480937319422</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>33.66286029739454</v>
+        <v>32.04668978628369</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>13.08560359680905</v>
+        <v>21.91215726729313</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.32685389447358</v>
+        <v>28.25542879540713</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.73986212158519</v>
+        <v>35.99196990032964</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>10.82682253583654</v>
+        <v>6.218441295106132</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.27916053066523</v>
+        <v>24.48692157791599</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.79506284537902</v>
+        <v>27.4550001934016</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>14.94918930910369</v>
+        <v>14.71384546821064</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.00628245973043</v>
+        <v>44.71893845059928</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>32.53833040005809</v>
+        <v>48.26154634399323</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.3536664807441</v>
+        <v>43.72221840102638</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>33.56130738190931</v>
+        <v>47.9139649579016</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.47832283150937</v>
+        <v>47.16466884660842</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>19.94251160198317</v>
+        <v>23.60447533212913</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>30.64889053864053</v>
+        <v>36.75891182399998</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.39870367611792</v>
+        <v>45.46030663902972</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>15.50644660732914</v>
+        <v>13.33829262893194</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.86844412985452</v>
+        <v>26.60649977066994</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>32.35773869197746</v>
+        <v>34.14485891799059</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>12.83408667843724</v>
+        <v>-0.7853230000556124</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.37090143444659</v>
+        <v>11.36548437118951</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.98535671105085</v>
+        <v>20.23969247405653</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>17.01281941274843</v>
+        <v>3.127210138298992</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.18710539805947</v>
+        <v>29.70813732719854</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.80229287605108</v>
+        <v>41.82979243361625</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.78216965616529</v>
+        <v>30.83034261926231</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.08111768045279</v>
+        <v>40.32479664817971</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>38.04595301450412</v>
+        <v>45.1205661199606</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>22.38928038178893</v>
+        <v>11.23461712618199</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>33.25967965302114</v>
+        <v>39.04030879466434</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>37.02508348993513</v>
+        <v>45.05711433815797</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.02822206609434</v>
+        <v>21.18433256482378</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>34.55357425316252</v>
+        <v>36.99671201167671</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>39.10903932818772</v>
+        <v>46.61394251289012</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.6538009673782</v>
+        <v>4.561486952953729</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.39189247144731</v>
+        <v>24.05130188412427</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>37.03998726431296</v>
+        <v>31.97801196584238</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>23.88637120009835</v>
+        <v>10.62059592995512</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>37.22375947399881</v>
+        <v>46.74667877357466</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>41.90947416444507</v>
+        <v>61.83963686864705</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>39.04605035255439</v>
+        <v>57.8636286713634</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>43.3913938376357</v>
+        <v>67.38018760364027</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>45.36705865101393</v>
+        <v>74.17405167448099</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.45070995620819</v>
+        <v>19.7112503131642</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>40.46016499958359</v>
+        <v>57.38907632169658</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>44.26897985391275</v>
+        <v>68.20104332115203</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>10.63656971381952</v>
+        <v>14.38535850745642</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.70267448797147</v>
+        <v>31.40138181585179</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.00168836214968</v>
+        <v>37.55035997482842</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>8.451028247714772</v>
+        <v>6.316273890460181</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.71638767544072</v>
+        <v>33.70811860681256</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.12565545934845</v>
+        <v>38.31310911786095</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>12.47729362430673</v>
+        <v>13.08943143385737</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.34441950372854</v>
+        <v>55.88621873170153</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.76151833340915</v>
+        <v>60.10731637571307</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>26.65607389321639</v>
+        <v>54.16923182828059</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>30.78823419168499</v>
+        <v>62.06759840157189</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.65214717382521</v>
+        <v>63.86771669090716</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>17.33317199471039</v>
+        <v>13.52138026482471</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>27.91802956414778</v>
+        <v>40.84881119155106</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.57162054719441</v>
+        <v>49.78767708229613</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>12.8817681927914</v>
+        <v>8.28205627370447</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.06077727572971</v>
+        <v>30.16443822738158</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.43518696247719</v>
+        <v>36.9090176830815</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>10.29187738713593</v>
+        <v>1.202037997278254</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.63533207327553</v>
+        <v>21.54299849472328</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.14179597886459</v>
+        <v>33.44972055311662</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>14.37558647580786</v>
+        <v>4.321470534675953</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.35229080590607</v>
+        <v>41.6479789559974</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.85151077574637</v>
+        <v>55.36260314439944</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.90409509293749</v>
+        <v>41.87074656157945</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>33.12321519141968</v>
+        <v>55.57424462063902</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>35.03272133561075</v>
+        <v>62.66877096410708</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>19.6010899739848</v>
+        <v>6.355921838805656</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>30.34110714966219</v>
+        <v>44.83400753810405</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>34.01265560128047</v>
+        <v>53.36853422350895</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>19.37724592733219</v>
+        <v>8.788799604568212</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>31.72337520450887</v>
+        <v>33.6250983583309</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>36.16104504308015</v>
+        <v>42.52519615181642</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>17.07618887610536</v>
+        <v>-1.100467095861504</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.62432474707136</v>
+        <v>26.93104130775301</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>34.16165002414098</v>
+        <v>37.04288982482502</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>21.21843189075566</v>
+        <v>3.623565142679738</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.36140944709341</v>
+        <v>50.38123080522782</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.92858930842476</v>
+        <v>67.3446447721373</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.13447181365783</v>
+        <v>58.55239712219536</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.40128426298089</v>
+        <v>72.76379645807263</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>42.32097592366451</v>
+        <v>83.03056721003269</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>26.63313306821553</v>
+        <v>5.724341128953498</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>37.51431420249418</v>
+        <v>56.07841842185196</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>41.2260018887456</v>
+        <v>68.70054189404108</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>14.90432309174808</v>
+        <v>9.832605548875918</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>27.19263282498219</v>
+        <v>25.6272376219403</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>31.58200286291516</v>
+        <v>33.19939813764707</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>12.79504674757223</v>
+        <v>4.218952255714768</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.30122310017964</v>
+        <v>35.92887414732853</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.79233115012307</v>
+        <v>39.39655527998245</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>16.89595473514176</v>
+        <v>9.454709410612381</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.99871957975716</v>
+        <v>55.77038177496634</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>34.50616622784565</v>
+        <v>58.7091025206157</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>31.36184851235626</v>
+        <v>50.98145220755187</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.57428897402737</v>
+        <v>57.77997904717337</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>37.48227154199873</v>
+        <v>57.76330400068697</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>21.94822379949242</v>
+        <v>12.28812348306191</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.68149629942045</v>
+        <v>37.33598822846439</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.40874055601135</v>
+        <v>49.47493760874313</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>17.32720558229236</v>
+        <v>9.042518388703044</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.73547788257833</v>
+        <v>32.09239942927356</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>34.19806726410946</v>
+        <v>38.89613376488863</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>14.80311024065083</v>
+        <v>1.04937734685025</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>27.3933626479707</v>
+        <v>26.26248902517646</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.97952574875098</v>
+        <v>35.87460761611273</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>18.96182171425534</v>
+        <v>2.905725396987592</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>32.18100733021878</v>
+        <v>45.83565654702001</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>36.76850739702147</v>
+        <v>57.05506559908891</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.79120623553746</v>
+        <v>44.20001130988349</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>38.09491530020338</v>
+        <v>57.12073800010064</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>40.04934469410728</v>
+        <v>63.34186765708522</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>24.39670079480002</v>
+        <v>7.540160167535575</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>35.29205585674722</v>
+        <v>49.42337796981651</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>39.03257226411196</v>
+        <v>56.96628039046423</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>23.63408914461846</v>
+        <v>9.590174855227517</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.19870303383696</v>
+        <v>34.58960515901204</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.72859712691074</v>
+        <v>43.40789294539421</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>21.40821952764913</v>
+        <v>0.9736629600517546</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>34.19155370054346</v>
+        <v>32.91880241468526</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.81319819576249</v>
+        <v>41.45832792965537</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>25.61784472309467</v>
+        <v>4.170691658359843</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>38.99284694627477</v>
+        <v>55.5165427568666</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.65209031656232</v>
+        <v>69.78579386682462</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>40.8294800845365</v>
+        <v>64.57481777268593</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>45.17808977116942</v>
+        <v>77.35999197183578</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>47.14430181066088</v>
+        <v>85.06872830916926</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>31.23739950687195</v>
+        <v>9.662194019815573</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>42.2666639508132</v>
+        <v>61.1840799277998</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>46.05144131535158</v>
+        <v>73.75044802434407</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>0.6000797303026815</v>
+        <v>20.19959562201798</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>13.39212025622849</v>
+        <v>30.65427511832762</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>17.96334095044099</v>
+        <v>36.4400194935301</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-1.897792112002623</v>
+        <v>20.99236303905518</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>11.11607742575555</v>
+        <v>48.31152913441771</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>15.79985246827593</v>
+        <v>50.00400615036078</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>2.337682660993785</v>
+        <v>19.10956641371378</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.97869307949283</v>
+        <v>58.42201161253696</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>20.67575905234423</v>
+        <v>60.92579903297083</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>17.44818186205221</v>
+        <v>52.94544623347143</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>21.84282221782444</v>
+        <v>57.20065009631283</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.8383872672059</v>
+        <v>58.87604472264972</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>7.725478140487182</v>
+        <v>25.00274045707651</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>18.90047720308637</v>
+        <v>39.82790974199857</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>22.78777253861177</v>
+        <v>51.65050004352518</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>3.152072319334099</v>
+        <v>19.53067244816158</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>16.07139289426466</v>
+        <v>36.8588078257646</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>20.7211493258238</v>
+        <v>42.57711569206079</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>0.2222601633291887</v>
+        <v>21.98723868324525</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>13.32701517727266</v>
+        <v>42.36171849476555</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>18.111646320674</v>
+        <v>50.42423274531647</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>4.518614458007722</v>
+        <v>13.92183517444472</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>18.28326769384169</v>
+        <v>49.9298604416047</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.06598217193446</v>
+        <v>61.21461919219384</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>20.00900123675093</v>
+        <v>48.05463960156045</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>24.49931175553129</v>
+        <v>58.09025977674337</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.54362486839209</v>
+        <v>66.16554900705036</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>10.30322534045856</v>
+        <v>20.80644289693318</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>21.65015424175587</v>
+        <v>51.95756572180839</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>25.552906365164</v>
+        <v>59.68618799411742</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>10.17181927196756</v>
+        <v>21.23032445523766</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>23.25679608470537</v>
+        <v>40.03743824473666</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>27.97595575159097</v>
+        <v>47.6274538153841</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>7.554931730928672</v>
+        <v>22.73858676852764</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>20.8638092848403</v>
+        <v>49.24836490466701</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>25.6846955161552</v>
+        <v>56.15918964281299</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>11.91095720775238</v>
+        <v>16.1144980381098</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>25.84081208884034</v>
+        <v>60.2032734096408</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>30.69753499665507</v>
+        <v>74.39036862814159</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>27.80359813805352</v>
+        <v>68.89491287012022</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>32.3412713538407</v>
+        <v>78.73295847990404</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.39785825133633</v>
+        <v>88.37028187808512</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>17.88956826087499</v>
+        <v>24.19944830837507</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.3763980590084</v>
+        <v>63.83423939471761</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.32442559607123</v>
+        <v>76.73743286016217</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>11.88018004357965</v>
+        <v>10.31428671766464</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>24.1125206919918</v>
+        <v>25.39530764482741</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.47340516706447</v>
+        <v>33.19963192202125</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.721401650868694</v>
+        <v>3.912866962757747</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>22.15656306763537</v>
+        <v>28.20546070404809</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.62636019483108</v>
+        <v>33.33061176237238</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>13.7951938766731</v>
+        <v>9.360988794982049</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>26.83726540069783</v>
+        <v>50.37757082563625</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>31.31801752396127</v>
+        <v>55.78477004637033</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.19297314120279</v>
+        <v>52.46974174204261</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.38131280419383</v>
+        <v>58.7230107378664</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>34.27041709937668</v>
+        <v>58.14189353037192</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>18.76075597416245</v>
+        <v>9.635038205522974</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.4778610335595</v>
+        <v>36.06227995233554</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>33.1835987974316</v>
+        <v>45.17970597484943</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>14.20967087935144</v>
+        <v>8.021364068169433</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>26.55733924997771</v>
+        <v>29.286761982561</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>30.99232555244204</v>
+        <v>36.33030865049882</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>11.64067697869538</v>
+        <v>1.110596462121336</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>24.15654966642393</v>
+        <v>19.75948386609723</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.7219976428536</v>
+        <v>30.89284306137732</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>15.77179623710014</v>
+        <v>3.120476266599965</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.92576509942526</v>
+        <v>39.5813756467294</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>33.48740790392131</v>
+        <v>53.36389415972054</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.52416017440938</v>
+        <v>42.33747840496905</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.80086501456348</v>
+        <v>54.22610182305716</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>36.73592120153037</v>
+        <v>59.3649529886609</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>21.11227617358928</v>
+        <v>4.717381216581046</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.98632678447015</v>
+        <v>43.87264248877172</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>35.70854793480608</v>
+        <v>51.65906514165933</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>20.57099615884078</v>
+        <v>9.424356772954681</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>33.08149300164445</v>
+        <v>32.71872323540741</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>37.58215690003405</v>
+        <v>42.64001400561504</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>18.29399042298917</v>
+        <v>0.8118454260081052</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>31.00994014876288</v>
+        <v>25.75938986931318</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.60870551412481</v>
+        <v>36.20161628663315</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>22.48057999692753</v>
+        <v>4.194706862434103</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>35.7965487717813</v>
+        <v>48.95390958523866</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>40.42852925931297</v>
+        <v>66.67458373431914</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>37.61948058482459</v>
+        <v>61.63593596078083</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>41.94421030524451</v>
+        <v>74.07545096551324</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>43.89032948659374</v>
+        <v>81.98062164860953</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.01102132535745</v>
+        <v>6.699226744040985</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>39.02408350061445</v>
+        <v>56.71599189768288</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>42.78774071889198</v>
+        <v>69.22438223881359</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>10.27347653491703</v>
+        <v>7.446245015003726</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>22.16316554846032</v>
+        <v>10.35269751454724</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.43953976275989</v>
+        <v>15.50948204979623</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>8.067352076398713</v>
+        <v>-3.444857200250297</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>20.15573329842249</v>
+        <v>10.86784143119176</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.54325518958749</v>
+        <v>14.39593885029392</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>12.03657957669452</v>
+        <v>2.208404474609509</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>24.71773982070414</v>
+        <v>25.68025740063773</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.11139112992451</v>
+        <v>30.12255626853882</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>26.02350504405322</v>
+        <v>25.2977995574753</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.1130345675869</v>
+        <v>27.75209941524083</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.98071826665446</v>
+        <v>31.64721356877222</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>16.87494886344208</v>
+        <v>3.850456518633692</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>27.2831867377913</v>
+        <v>14.2356697324645</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.91937280220911</v>
+        <v>20.5090599219093</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>12.73743830943603</v>
+        <v>10.89227055741192</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>24.7453198445637</v>
+        <v>22.26742201434435</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.09873260396486</v>
+        <v>30.25826390399955</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>10.13255765050012</v>
+        <v>2.566181414006579</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>22.30394602275136</v>
+        <v>12.58522744568394</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.78978272199078</v>
+        <v>25.24892980845824</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>14.1570318053442</v>
+        <v>4.65587028203349</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>26.95304401421292</v>
+        <v>26.74227895615</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.43045328400272</v>
+        <v>43.22571470728859</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.50180440785962</v>
+        <v>30.19844337925177</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.68083901753525</v>
+        <v>37.65126170929692</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.595552002712</v>
+        <v>49.70842609586224</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>19.36924703139275</v>
+        <v>6.127501551723938</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.93816728520438</v>
+        <v>33.61307234666536</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>33.59206220188207</v>
+        <v>41.12416971180285</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>19.02748704954097</v>
+        <v>13.41637986013542</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.19554143079894</v>
+        <v>27.52637576748491</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>35.61268105102504</v>
+        <v>37.0980074948106</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>16.70818880254976</v>
+        <v>2.074847733939734</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.0771640742705</v>
+        <v>19.5604839949636</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.59533924773359</v>
+        <v>31.00449250057697</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>20.78615537419462</v>
+        <v>5.899421828730866</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>33.7419969808431</v>
+        <v>37.53040428652447</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.28730084830802</v>
+        <v>56.29593539827296</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.509126443773</v>
+        <v>48.72066202934444</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>39.73258054433756</v>
+        <v>56.45111419922485</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>41.65761610850571</v>
+        <v>70.13070494835243</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>26.18098636018757</v>
+        <v>7.781902138454754</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>36.88582788725971</v>
+        <v>45.02626924138376</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.58144667691353</v>
+        <v>57.42729496540157</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>0.08753779458620414</v>
+        <v>12.44022915701676</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>12.86046128730301</v>
+        <v>20.50790351999699</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>17.4328042747087</v>
+        <v>27.29284114719123</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-2.422795654504075</v>
+        <v>4.256506456633829</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>10.57078439663261</v>
+        <v>27.34542582082939</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>15.25680295457607</v>
+        <v>30.81762874815509</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>1.810526282981201</v>
+        <v>7.974716587871697</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>15.43135744307251</v>
+        <v>42.32620818575735</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>20.12965192926553</v>
+        <v>46.80539039147659</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>16.9026926449891</v>
+        <v>37.22175532959803</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>21.29236514454135</v>
+        <v>41.30846232716452</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>23.28947501229624</v>
+        <v>44.6482214325933</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>7.192879690920099</v>
+        <v>12.4802439859882</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>18.35378960326734</v>
+        <v>26.09314305986264</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>22.24240922530323</v>
+        <v>38.55535583133771</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>2.613659498762701</v>
+        <v>10.11089682957378</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>15.51357889819976</v>
+        <v>25.15026392809322</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>20.1650917734244</v>
+        <v>32.70398689333597</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-0.3289396621498213</v>
+        <v>3.896665804869784</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>12.75521642186107</v>
+        <v>20.1908546192826</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>17.54275716004386</v>
+        <v>30.95651825208439</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>3.964889364112636</v>
+        <v>1.791156321575826</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>17.70907194940373</v>
+        <v>32.90898706798306</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>22.49364878908392</v>
+        <v>47.03374792111497</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>19.43610678759732</v>
+        <v>31.56687011248276</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>23.92135455389802</v>
+        <v>41.42447082586098</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>25.96752858551294</v>
+        <v>51.64900353841948</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>9.743078643555005</v>
+        <v>6.695180185821258</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>21.07589736653766</v>
+        <v>36.49091743684774</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>24.98044890976151</v>
+        <v>45.80943377416664</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>9.651956138112739</v>
+        <v>7.279935972864322</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>22.71815147646329</v>
+        <v>23.90499143103769</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.43868901955766</v>
+        <v>33.19839927747323</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>7.02303405043911</v>
+        <v>-0.04758101761781575</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>20.31200970100191</v>
+        <v>22.49973791780302</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>25.13545806505418</v>
+        <v>31.93562885732437</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>11.3764040208938</v>
+        <v>-0.8437663219664415</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.28645681514276</v>
+        <v>38.51697476957374</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>30.14462104348295</v>
+        <v>55.37842692480392</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>27.25081487236868</v>
+        <v>47.49234447200102</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>31.78351165322584</v>
+        <v>57.05872928321789</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>33.8416639355095</v>
+        <v>68.76011425714411</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>17.34953581025014</v>
+        <v>5.228429000355035</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.82247503863657</v>
+        <v>43.30791588392277</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>32.77203508299522</v>
+        <v>57.95125277106165</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>16.32919371963915</v>
+        <v>16.56938412431533</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.40482090733072</v>
+        <v>28.56113498067269</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>32.70490605410051</v>
+        <v>35.07424143817856</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>14.2488079923028</v>
+        <v>6.46116497470932</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>26.5443062033995</v>
+        <v>40.17279419963266</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.94304254202267</v>
+        <v>42.49645687617719</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>18.31638118373636</v>
+        <v>15.26628538881353</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>31.19513545158525</v>
+        <v>61.54872143656523</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>35.61186117685365</v>
+        <v>62.74445058915178</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.49945680553911</v>
+        <v>59.51569579729095</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>36.63322095814608</v>
+        <v>62.12955070876173</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>38.50710845964171</v>
+        <v>61.52351690965263</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>23.18867493581958</v>
+        <v>18.71196770137236</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>33.75038903671083</v>
+        <v>39.04545756528996</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>37.42259641286473</v>
+        <v>51.325385296786</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>18.67639802770816</v>
+        <v>17.17931013325402</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>30.86745417343855</v>
+        <v>35.10410148045308</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>35.24084096586816</v>
+        <v>40.12211016925083</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>16.18878874713082</v>
+        <v>5.630274124697067</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.56361148755074</v>
+        <v>31.24192318015527</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>33.05727138183632</v>
+        <v>39.45222551846531</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>20.31309880597848</v>
+        <v>10.58818069851496</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>33.30397412761641</v>
+        <v>52.50826769303505</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.80068165789246</v>
+        <v>61.41185798384946</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>34.85367391126665</v>
+        <v>52.11709161925724</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>39.07611420440957</v>
+        <v>59.74609660462748</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>40.99585926021454</v>
+        <v>64.25008760133223</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>25.56306301097707</v>
+        <v>15.46206183406487</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>36.28378061249471</v>
+        <v>50.45855898923553</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>39.96953993963135</v>
+        <v>57.00449324623749</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>24.91337193183635</v>
+        <v>15.75043315020626</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>37.26413171744503</v>
+        <v>36.34931733695841</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>41.70195442375405</v>
+        <v>43.21961497094354</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>22.70962334488003</v>
+        <v>2.194913988568501</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.28145962978817</v>
+        <v>34.87860848142488</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>39.80741021046549</v>
+        <v>41.83897073128652</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>26.88663756306381</v>
+        <v>8.568377417581488</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>40.03656452438335</v>
+        <v>59.89533033949785</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>44.60222284692492</v>
+        <v>71.47608030369553</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>41.80729579039894</v>
+        <v>69.32399133361703</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>46.07565130330141</v>
+        <v>76.36419729619918</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>48.00603438013601</v>
+        <v>83.22643042157843</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>32.31947806864149</v>
+        <v>13.40552124751362</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>43.17691148271298</v>
+        <v>59.37207740496505</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>46.90470655982132</v>
+        <v>70.38510465089892</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>12.75038789254076</v>
+        <v>10.98278360803424</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.98900478507343</v>
+        <v>26.72459190215896</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>29.343299833736</v>
+        <v>32.77840242594321</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>10.60185340982362</v>
+        <v>3.914892594808677</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>23.04623468059046</v>
+        <v>30.37220970346952</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>27.50890099635059</v>
+        <v>34.38272400336056</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>14.68432410756482</v>
+        <v>9.899686194179353</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>27.73215900746059</v>
+        <v>52.08981958991264</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>32.20636111400616</v>
+        <v>55.31495025942546</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.08503321656601</v>
+        <v>52.58772175063034</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>33.274141255571</v>
+        <v>59.53958570996899</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>35.16296912625026</v>
+        <v>59.35322661931347</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>19.65390123538443</v>
+        <v>9.077990443056066</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>30.37215176593635</v>
+        <v>36.33642417307264</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>34.07330164214619</v>
+        <v>44.64102752136311</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>15.12620367512135</v>
+        <v>11.451059437583</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>27.48037755197511</v>
+        <v>33.51311852663038</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>31.90878781611252</v>
+        <v>39.06506900201849</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>12.56827059304886</v>
+        <v>3.879094220174139</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>25.09325475128563</v>
+        <v>24.42212365120578</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.65155585756148</v>
+        <v>34.75310461825008</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>16.70792567574739</v>
+        <v>6.618811306436115</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.8678848716998</v>
+        <v>44.67580616604788</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>34.4230185350111</v>
+        <v>56.53018315922863</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>31.46397438426012</v>
+        <v>45.55225180987902</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>35.74159821840012</v>
+        <v>57.97553689658618</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>37.67663212446864</v>
+        <v>64.08587638367989</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>22.05327449446158</v>
+        <v>6.580546131550207</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>32.92887577177767</v>
+        <v>47.65612011093033</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>36.64628673786596</v>
+        <v>54.20866035743764</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>21.39478115453504</v>
+        <v>9.199646884293159</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>33.90997884755269</v>
+        <v>32.93156906005358</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>38.40442487295014</v>
+        <v>41.36390148767869</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>19.12653339973045</v>
+        <v>-1.169540484170639</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>31.84950417070692</v>
+        <v>25.14434719136811</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>36.44161315737091</v>
+        <v>34.93705095337718</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>23.32064945006386</v>
+        <v>2.821192203210458</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>36.64082067393888</v>
+        <v>48.67585838147617</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>41.2665975719118</v>
+        <v>64.37429979272359</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>38.46092742625815</v>
+        <v>59.78866973237085</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>42.78620730555328</v>
+        <v>71.85600519546908</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>44.73200308272838</v>
+        <v>80.93926681166054</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.85434197889891</v>
+        <v>3.509500937691101</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>39.86734774242588</v>
+        <v>54.21123555086733</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>43.62686622227973</v>
+        <v>65.97431846710835</v>
       </c>
     </row>
   </sheetData>
